--- a/Docs/Bench/BenchPerf270323.xlsx
+++ b/Docs/Bench/BenchPerf270323.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityDev\Proj\DorianDeVillele\Docs\Bench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E951C5EB-2FD5-424F-9C36-9FC24FC4F9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CE8F01-6D5E-45D3-AC20-AAC2C16BEE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{300C4252-A5F4-4E16-A14B-563A41E9AEA8}"/>
   </bookViews>
@@ -413,7 +413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1D2283-66F6-4059-AA6C-3B7183D11099}">
   <dimension ref="B4:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -439,6 +441,9 @@
       <c r="C6" s="1">
         <v>150</v>
       </c>
+      <c r="E6" s="1">
+        <v>155</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -447,6 +452,9 @@
       <c r="C7" s="1">
         <v>110</v>
       </c>
+      <c r="E7" s="1">
+        <v>145</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -454,6 +462,9 @@
       </c>
       <c r="C8" s="1">
         <v>125</v>
+      </c>
+      <c r="E8" s="1">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Bench/BenchPerf270323.xlsx
+++ b/Docs/Bench/BenchPerf270323.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityDev\Proj\DorianDeVillele\Docs\Bench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CE8F01-6D5E-45D3-AC20-AAC2C16BEE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8591B-ABFA-4720-874A-924296F66612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{300C4252-A5F4-4E16-A14B-563A41E9AEA8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>avant</t>
   </si>
@@ -50,7 +50,13 @@
     <t>millieu</t>
   </si>
   <si>
-    <t>après LOD Tree</t>
+    <t>LOD Tree</t>
+  </si>
+  <si>
+    <t>LOD Tree + Grass</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -92,9 +98,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,18 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1D2283-66F6-4059-AA6C-3B7183D11099}">
-  <dimension ref="B4:E8"/>
+  <dimension ref="B4:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="1.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -430,8 +440,11 @@
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -441,8 +454,11 @@
       <c r="C6" s="1">
         <v>150</v>
       </c>
+      <c r="D6" s="1">
+        <v>150</v>
+      </c>
       <c r="E6" s="1">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -452,8 +468,11 @@
       <c r="C7" s="1">
         <v>110</v>
       </c>
+      <c r="D7" s="1">
+        <v>130</v>
+      </c>
       <c r="E7" s="1">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -463,8 +482,62 @@
       <c r="C8" s="1">
         <v>125</v>
       </c>
+      <c r="D8" s="1">
+        <v>135</v>
+      </c>
       <c r="E8" s="1">
-        <v>150</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <f>SUM(D10:W10)</f>
+        <v>0.15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <f>(D6-C6)/100</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <f>(E6-D6)/100</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <f t="shared" ref="B11:B12" si="0">SUM(D11:W11)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11:E12" si="1">(D7-C7)/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Bench/BenchPerf270323.xlsx
+++ b/Docs/Bench/BenchPerf270323.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityDev\Proj\DorianDeVillele\Docs\Bench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8591B-ABFA-4720-874A-924296F66612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F89790-3E0A-401A-8DA8-5CD1186E8A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{300C4252-A5F4-4E16-A14B-563A41E9AEA8}"/>
   </bookViews>
@@ -425,7 +425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1D2283-66F6-4059-AA6C-3B7183D11099}">
   <dimension ref="B4:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Docs/Bench/BenchPerf270323.xlsx
+++ b/Docs/Bench/BenchPerf270323.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityDev\Proj\DorianDeVillele\Docs\Bench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F89790-3E0A-401A-8DA8-5CD1186E8A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222E48FA-7C03-481B-8A4D-854AC909833A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{300C4252-A5F4-4E16-A14B-563A41E9AEA8}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{300C4252-A5F4-4E16-A14B-563A41E9AEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -425,9 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1D2283-66F6-4059-AA6C-3B7183D11099}">
   <dimension ref="B4:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -493,7 +491,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
-        <f>SUM(D10:W10)</f>
+        <f>SUM(D10:V10)</f>
         <v>0.15</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -510,35 +508,35 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
-        <f t="shared" ref="B11:B12" si="0">SUM(D11:W11)</f>
+        <f>SUM(D11:V11)</f>
         <v>0.25</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" ref="D11:E12" si="1">(D7-C7)/100</f>
+        <f t="shared" ref="D11:E12" si="0">(D7-C7)/100</f>
         <v>0.2</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(D12:V12)</f>
         <v>0.2</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
